--- a/takeAlotSheet.xlsx
+++ b/takeAlotSheet.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t xml:space="preserve">Yvonne</t>
   </si>
@@ -34,10 +35,22 @@
     <t xml:space="preserve">qwerty12345</t>
   </si>
   <si>
-    <t xml:space="preserve">sekalelivonnie@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y@ss015009</t>
+    <t xml:space="preserve">0790200036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thapelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">makhanya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jong@testing.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qwetrty1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">charks43@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -146,7 +159,7 @@
   </sheetPr>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -180,8 +193,8 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="n">
-        <v>834633874</v>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -192,19 +205,27 @@
       <c r="L1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>790200038</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1" display="vonnie@testing.com"/>
-    <hyperlink ref="A2" r:id="rId2" display="sekalelivonnie@gmail.com"/>
-    <hyperlink ref="B2" r:id="rId3" display="Y@ss015009"/>
+    <hyperlink ref="C2" r:id="rId2" display="jong@testing.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -214,4 +235,43 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.49"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="charks43@gmail.com"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/takeAlotSheet.xlsx
+++ b/takeAlotSheet.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t xml:space="preserve">Yvonne</t>
   </si>
@@ -29,13 +30,13 @@
     <t xml:space="preserve">Sekaleli</t>
   </si>
   <si>
-    <t xml:space="preserve">vonnie@testing.com</t>
+    <t xml:space="preserve">hdhdhd@test.com</t>
   </si>
   <si>
     <t xml:space="preserve">qwerty12345</t>
   </si>
   <si>
-    <t xml:space="preserve">0790200036</t>
+    <t xml:space="preserve">0790208036</t>
   </si>
   <si>
     <t xml:space="preserve">thapelo</t>
@@ -50,7 +51,43 @@
     <t xml:space="preserve">qwetrty1234</t>
   </si>
   <si>
+    <t xml:space="preserve">Thereso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mabena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">terry@don.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1455kjjchg</t>
+  </si>
+  <si>
     <t xml:space="preserve">charks43@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sekalelivonnie@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y@ss015009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">laptop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T-shirt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">polo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue</t>
   </si>
 </sst>
 </file>
@@ -157,10 +194,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -222,10 +259,28 @@
         <v>790200038</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>785624952</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" display="vonnie@testing.com"/>
+    <hyperlink ref="C1" r:id="rId1" display="hdhdhd@test.com"/>
     <hyperlink ref="C2" r:id="rId2" display="jong@testing.com"/>
+    <hyperlink ref="C3" r:id="rId3" display="terry@don.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -242,29 +297,39 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.49"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="charks43@gmail.com"/>
+    <hyperlink ref="A2" r:id="rId2" display="sekalelivonnie@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId3" display="Y@ss015009"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -274,4 +339,50 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/takeAlotSheet.xlsx
+++ b/takeAlotSheet.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t xml:space="preserve">Yvonne</t>
   </si>
@@ -36,7 +37,7 @@
     <t xml:space="preserve">qwerty12345</t>
   </si>
   <si>
-    <t xml:space="preserve">0790208036</t>
+    <t xml:space="preserve">0798208036</t>
   </si>
   <si>
     <t xml:space="preserve">thapelo</t>
@@ -88,6 +89,12 @@
   </si>
   <si>
     <t xml:space="preserve">Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbele</t>
   </si>
 </sst>
 </file>
@@ -196,8 +203,8 @@
   </sheetPr>
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -256,7 +263,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>790200038</v>
+        <v>790290038</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -273,7 +280,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>785624952</v>
+        <v>785621952</v>
       </c>
     </row>
   </sheetData>
@@ -303,7 +310,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.49"/>
@@ -352,7 +359,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -385,4 +392,49 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.49"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="charks43@gmail.com"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/takeAlotSheet.xlsx
+++ b/takeAlotSheet.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t xml:space="preserve">Yvonne</t>
   </si>
@@ -95,6 +96,21 @@
   </si>
   <si>
     <t xml:space="preserve">Mbele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thapelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1612 Mkonza Street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vuka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bethlehem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free State</t>
   </si>
 </sst>
 </file>
@@ -171,7 +187,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -181,6 +197,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -204,7 +224,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="K1 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -307,7 +327,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D19" activeCellId="1" sqref="K1 D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -356,7 +376,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="K1 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -401,11 +421,11 @@
   </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="K1 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.49"/>
@@ -423,6 +443,78 @@
       </c>
       <c r="D1" s="0" t="s">
         <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="charks43@gmail.com"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L1" activeCellId="1" sqref="K1 L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.28"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="0" t="n">
+        <v>790200071</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="0" t="n">
+        <v>9701</v>
       </c>
     </row>
   </sheetData>

--- a/takeAlotSheet.xlsx
+++ b/takeAlotSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t xml:space="preserve">Yvonne</t>
   </si>
@@ -86,7 +86,7 @@
     <t xml:space="preserve">T-shirt</t>
   </si>
   <si>
-    <t xml:space="preserve">polo</t>
+    <t xml:space="preserve">Polo</t>
   </si>
   <si>
     <t xml:space="preserve">Blue</t>
@@ -224,7 +224,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="K1 C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -327,7 +327,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="1" sqref="K1 D19"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -373,37 +373,58 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="K1 B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.49"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="charks43@gmail.com"/>
+    <hyperlink ref="A2" r:id="rId2" display="sekalelivonnie@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId3" display="Y@ss015009"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -422,10 +443,10 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="K1 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.49"/>
@@ -466,11 +487,11 @@
   </sheetPr>
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L1" activeCellId="1" sqref="K1 L1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.49"/>

--- a/takeAlotSheet.xlsx
+++ b/takeAlotSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,7 @@
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Sheet5" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t xml:space="preserve">Yvonne</t>
   </si>
@@ -74,13 +75,16 @@
     <t xml:space="preserve">Y@ss015009</t>
   </si>
   <si>
+    <t xml:space="preserve">Laptop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black</t>
+  </si>
+  <si>
     <t xml:space="preserve">laptop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black</t>
   </si>
   <si>
     <t xml:space="preserve">T-shirt</t>
@@ -373,10 +377,45 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -393,7 +432,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>17</v>
@@ -410,13 +449,13 @@
         <v>15</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -435,7 +474,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -460,10 +499,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -480,14 +519,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
@@ -508,7 +547,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>17</v>
@@ -517,22 +556,22 @@
         <v>18</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="0" t="n">
         <v>790200071</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="n">
         <v>9701</v>

--- a/takeAlotSheet.xlsx
+++ b/takeAlotSheet.xlsx
@@ -383,7 +383,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -526,11 +526,11 @@
   </sheetPr>
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.49"/>
